--- a/docs/214 comps.xlsx
+++ b/docs/214 comps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3f65a642d0762be/Desktop/214_assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72724A3-ED4A-40AA-8B2E-61B0708B4D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F72724A3-ED4A-40AA-8B2E-61B0708B4D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56D2AFC-A9C5-4811-A685-F855EFB1956D}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="0" windowWidth="20004" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1320" windowWidth="20004" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,13 +614,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,7 +959,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,58 +1030,58 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>267.61</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>3</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="4" t="s">
         <v>176</v>
       </c>
     </row>

--- a/docs/214 comps.xlsx
+++ b/docs/214 comps.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3f65a642d0762be/Desktop/214_assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F72724A3-ED4A-40AA-8B2E-61B0708B4D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56D2AFC-A9C5-4811-A685-F855EFB1956D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F72724A3-ED4A-40AA-8B2E-61B0708B4D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC2D392D-D654-4191-A9B5-45DF9C760BF6}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1320" windowWidth="20004" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="17784" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$F$1:$F$21</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="178">
   <si>
     <t>Address</t>
   </si>
@@ -959,7 +975,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+      <selection activeCell="A2" sqref="A2:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,138 +1046,138 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4">
-        <v>7.1300000000000002E-2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="E2">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="4">
-        <v>267.61</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="P2">
+        <v>366.67</v>
+      </c>
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3">
-        <v>0.104</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
       </c>
       <c r="P3">
-        <v>340</v>
+        <v>378.13</v>
       </c>
       <c r="Q3">
         <v>3</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>177</v>
+      <c r="R3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4">
-        <v>8.72E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -1170,25 +1186,25 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s">
         <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="P4">
-        <v>333.18</v>
+        <v>363.27</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1199,25 +1215,25 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5">
-        <v>5.5399999999999998E-2</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -1226,31 +1242,31 @@
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="P5">
-        <v>366.67</v>
+        <v>327.92</v>
       </c>
       <c r="Q5">
         <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
@@ -1367,81 +1383,81 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8">
-        <v>8.6400000000000005E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
       <c r="P8">
-        <v>335.74</v>
+        <v>333.18</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9">
-        <v>6.4000000000000001E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -1450,25 +1466,25 @@
         <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
         <v>65</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="P9">
-        <v>363.27</v>
+        <v>292.06</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -1479,25 +1495,25 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>7.2300000000000003E-2</v>
+        <v>0.108</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
@@ -1506,16 +1522,16 @@
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="N10" t="s">
         <v>65</v>
@@ -1524,7 +1540,7 @@
         <v>38</v>
       </c>
       <c r="P10">
-        <v>327.92</v>
+        <v>327.52</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -1590,156 +1606,157 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E12" s="4">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4">
+        <f>-G33</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M12" t="s">
-        <v>107</v>
-      </c>
-      <c r="N12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P12">
-        <v>292.06</v>
-      </c>
-      <c r="Q12">
+      <c r="L12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="4">
+        <v>267.61</v>
+      </c>
+      <c r="Q12" s="4">
         <v>3</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
-        <v>0.108</v>
+        <v>0.104</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="O13" t="s">
         <v>38</v>
       </c>
       <c r="P13">
-        <v>327.52</v>
+        <v>340</v>
       </c>
       <c r="Q13">
         <v>3</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14">
-        <v>7.4399999999999994E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="M14" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
         <v>65</v>
@@ -1748,13 +1765,13 @@
         <v>38</v>
       </c>
       <c r="P14">
-        <v>315.95</v>
+        <v>335.74</v>
       </c>
       <c r="Q14">
         <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1815,55 +1832,55 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16">
-        <v>9.3700000000000006E-2</v>
+        <v>9.9900000000000003E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="P16">
-        <v>324.19</v>
+        <v>398.82</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s">
         <v>176</v>
@@ -1927,52 +1944,52 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18">
-        <v>9.1800000000000007E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="M18" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="O18" t="s">
         <v>38</v>
       </c>
       <c r="P18">
-        <v>378.13</v>
+        <v>315.95</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -1983,55 +2000,55 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>0.08</v>
+        <v>9.3700000000000006E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="K19" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="P19">
-        <v>235.5</v>
+        <v>324.19</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" t="s">
         <v>176</v>
@@ -2039,52 +2056,52 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20">
-        <v>9.9900000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="P20">
-        <v>398.82</v>
+        <v>235.5</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -2098,6 +2115,11 @@
       <c r="E21" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F21" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R21">
+      <sortCondition ref="F1:F21"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>